--- a/Pedro/Folha de Pagamento-com-funcao.xlsx
+++ b/Pedro/Folha de Pagamento-com-funcao.xlsx
@@ -15,9 +15,18 @@
     <sheet name="Folha de Pagamento" sheetId="2" r:id="rId1"/>
     <sheet name="Funcionários" sheetId="1" r:id="rId2"/>
     <sheet name="Cargos" sheetId="3" r:id="rId3"/>
+    <sheet name="Cargos Folha" sheetId="6" r:id="rId4"/>
+    <sheet name="INSS" sheetId="4" r:id="rId5"/>
+    <sheet name="IRRF" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Cargos">Cargos!$A$3:$C$17</definedName>
+    <definedName name="INSS">INSS!$A$4:$C$7</definedName>
+    <definedName name="INSSs">'Folha de Pagamento'!$F$6:$F$21</definedName>
+    <definedName name="IRRF">IRRF!$A$4:$C$11</definedName>
+    <definedName name="SalariosBrutos">'Folha de Pagamento'!$E$6:$E$21</definedName>
+    <definedName name="SalariosLiquidos">'Folha de Pagamento'!$K$6:$K$21</definedName>
+    <definedName name="tabfunc">'Folha de Pagamento'!$A$5:$K$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>Silva</t>
   </si>
@@ -236,16 +245,53 @@
   </si>
   <si>
     <t>Analista de Sistemas</t>
+  </si>
+  <si>
+    <t>Total de Salários Pagos</t>
+  </si>
+  <si>
+    <t>Média de Salários Pagos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maior Salário Pago </t>
+  </si>
+  <si>
+    <t>Menor Salário Pago</t>
+  </si>
+  <si>
+    <t>Aliquota</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Até</t>
+  </si>
+  <si>
+    <t>em diante</t>
+  </si>
+  <si>
+    <t>IRRF</t>
+  </si>
+  <si>
+    <t>Crachá</t>
+  </si>
+  <si>
+    <t>Cód.Barra</t>
+  </si>
+  <si>
+    <t>Total Bruto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +331,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Barcode"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +350,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -345,30 +402,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Barcode"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -379,6 +582,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A5:K25" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A5:K25"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Funcionário"/>
+    <tableColumn id="2" name="Cód.Cargo"/>
+    <tableColumn id="3" name="Cargo"/>
+    <tableColumn id="4" name="Nr. Sal. "/>
+    <tableColumn id="5" name="Sal. Bruto "/>
+    <tableColumn id="6" name="INSS"/>
+    <tableColumn id="7" name="Dep."/>
+    <tableColumn id="8" name="Sal. Fam. "/>
+    <tableColumn id="9" name="IRRF "/>
+    <tableColumn id="10" name="Tot. Desc. "/>
+    <tableColumn id="11" name="Sal. Líq. "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="M5:N21" totalsRowShown="0">
+  <autoFilter ref="M5:N21"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Crachá">
+      <calculatedColumnFormula>RANDBETWEEN(10000000,99999999)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Cód.Barra" dataDxfId="0">
+      <calculatedColumnFormula>RANDBETWEEN(10000000,99999999)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,21 +916,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -707,53 +953,63 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="6">
-        <v>998</v>
+      <c r="B3" s="3">
+        <v>1100</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E3" s="27">
+        <f>DATE(2021,10,2)</f>
+        <v>44471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B2)," ",Funcionários!C2," ", PROPER(Funcionários!A2)))</f>
         <v>José Carlos de Almeida</v>
@@ -762,19 +1018,38 @@
         <v>2</v>
       </c>
       <c r="C6" t="str">
-        <f>IF(AND($B6&gt;=1,$B6&lt;=15),VLOOKUP($B6,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" ref="C6:C21" si="0">IF(AND($B6&gt;=1,$B6&lt;=15),VLOOKUP($B6,Cargos,2,FALSE), "Cargo Inexistente")</f>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D6">
-        <f>IF(AND($B6&gt;=1,$B6&lt;=15),VLOOKUP($B6,Cargos,3,FALSE), "")</f>
+        <f t="shared" ref="D6:D21" si="1">IF(AND($B6&gt;=1,$B6&lt;=15),VLOOKUP($B6,Cargos,3,FALSE), "")</f>
         <v>6</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <f>PRODUCT(D6*B$3)</f>
-        <v>5988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6600</v>
+      </c>
+      <c r="F6" s="28">
+        <f>VLOOKUP(D6,INSS,3,TRUE)*E6</f>
+        <v>462.00000000000006</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="28">
+        <f>VLOOKUP($G6,IRRF,3,TRUE)*E6</f>
+        <v>132</v>
+      </c>
+      <c r="M6">
+        <f ca="1">RANDBETWEEN(10000000,99999999)</f>
+        <v>68052689</v>
+      </c>
+      <c r="N6" s="29">
+        <f ca="1">RANDBETWEEN(10000000,99999999)</f>
+        <v>64948622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B3)," ",Funcionários!C3," ", PROPER(Funcionários!A3)))</f>
         <v>Marisa Abreu Silva</v>
@@ -783,19 +1058,38 @@
         <v>2</v>
       </c>
       <c r="C7" t="str">
-        <f>IF(AND($B7&gt;=1,$B7&lt;=15),VLOOKUP($B7,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D7">
-        <f>IF(AND($B7&gt;=1,$B7&lt;=15),VLOOKUP($B7,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E7" s="6">
-        <f t="shared" ref="E7:E21" si="0">PRODUCT(D7*B$3)</f>
-        <v>5988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <f t="shared" ref="E7:E21" si="2">PRODUCT(D7*B$3)</f>
+        <v>6600</v>
+      </c>
+      <c r="F7" s="28">
+        <f>VLOOKUP(D7,INSS,3,TRUE)*E7</f>
+        <v>462.00000000000006</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="28">
+        <f>VLOOKUP($G7,IRRF,3,TRUE)*E7</f>
+        <v>264</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:N21" ca="1" si="3">RANDBETWEEN(10000000,99999999)</f>
+        <v>97173395</v>
+      </c>
+      <c r="N7" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>27299939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B4)," ",Funcionários!C4," ", PROPER(Funcionários!A4)))</f>
         <v>Pedro de Almeida</v>
@@ -804,19 +1098,38 @@
         <v>3</v>
       </c>
       <c r="C8" t="str">
-        <f>IF(AND($B8&gt;=1,$B8&lt;=15),VLOOKUP($B8,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Cobrança</v>
       </c>
       <c r="D8">
-        <f>IF(AND($B8&gt;=1,$B8&lt;=15),VLOOKUP($B8,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>6986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+      <c r="F8" s="28">
+        <f>VLOOKUP(D8,INSS,3,TRUE)*E8</f>
+        <v>539</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="28">
+        <f>VLOOKUP($G8,IRRF,3,TRUE)*E8</f>
+        <v>308</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="3"/>
+        <v>78767944</v>
+      </c>
+      <c r="N8" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>90575355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B5)," ",Funcionários!C5," ", PROPER(Funcionários!A5)))</f>
         <v>Vera Jesus</v>
@@ -825,19 +1138,38 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(AND($B9&gt;=1,$B9&lt;=15),VLOOKUP($B9,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Expedição</v>
       </c>
       <c r="D9">
-        <f>IF(AND($B9&gt;=1,$B9&lt;=15),VLOOKUP($B9,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>6986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+      <c r="F9" s="28">
+        <f>VLOOKUP(D9,INSS,3,TRUE)*E9</f>
+        <v>539</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <f>VLOOKUP($G9,IRRF,3,TRUE)*E9</f>
+        <v>154</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="3"/>
+        <v>14159517</v>
+      </c>
+      <c r="N9" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>40843336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B6)," ",Funcionários!C6," ", PROPER(Funcionários!A6)))</f>
         <v>Mario Paulo Simões</v>
@@ -846,19 +1178,38 @@
         <v>5</v>
       </c>
       <c r="C10" t="str">
-        <f>IF(AND($B10&gt;=1,$B10&lt;=15),VLOOKUP($B10,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Contador</v>
       </c>
       <c r="D10">
-        <f>IF(AND($B10&gt;=1,$B10&lt;=15),VLOOKUP($B10,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>12974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <f t="shared" si="2"/>
+        <v>14300</v>
+      </c>
+      <c r="F10" s="28">
+        <f>VLOOKUP(D10,INSS,3,TRUE)*E10</f>
+        <v>1430</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <f>VLOOKUP($G10,IRRF,3,TRUE)*E10</f>
+        <v>286</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="3"/>
+        <v>76128604</v>
+      </c>
+      <c r="N10" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>58842725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B7)," ",Funcionários!C7," ", PROPER(Funcionários!A7)))</f>
         <v>Sheila Maria de Souza</v>
@@ -867,19 +1218,38 @@
         <v>6</v>
       </c>
       <c r="C11" t="str">
-        <f>IF(AND($B11&gt;=1,$B11&lt;=15),VLOOKUP($B11,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Diretor de Divisão</v>
       </c>
       <c r="D11">
-        <f>IF(AND($B11&gt;=1,$B11&lt;=15),VLOOKUP($B11,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>19960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>22000</v>
+      </c>
+      <c r="F11" s="28">
+        <f>VLOOKUP(D11,INSS,3,TRUE)*E11</f>
+        <v>2200</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="28">
+        <f>VLOOKUP($G11,IRRF,3,TRUE)*E11</f>
+        <v>880</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="3"/>
+        <v>31621498</v>
+      </c>
+      <c r="N11" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>41405191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B8)," ",Funcionários!C8," ", PROPER(Funcionários!A8)))</f>
         <v>Maria Lourdes Garcia</v>
@@ -888,19 +1258,38 @@
         <v>5</v>
       </c>
       <c r="C12" t="str">
-        <f>IF(AND($B12&gt;=1,$B12&lt;=15),VLOOKUP($B12,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Contador</v>
       </c>
       <c r="D12">
-        <f>IF(AND($B12&gt;=1,$B12&lt;=15),VLOOKUP($B12,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>12974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <f t="shared" si="2"/>
+        <v>14300</v>
+      </c>
+      <c r="F12" s="28">
+        <f>VLOOKUP(D12,INSS,3,TRUE)*E12</f>
+        <v>1430</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="I12" s="28">
+        <f>VLOOKUP($G12,IRRF,3,TRUE)*E12</f>
+        <v>858</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="3"/>
+        <v>43771803</v>
+      </c>
+      <c r="N12" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>68234519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B9)," ",Funcionários!C9," ", PROPER(Funcionários!A9)))</f>
         <v>Juliana da Silva</v>
@@ -909,19 +1298,38 @@
         <v>6</v>
       </c>
       <c r="C13" t="str">
-        <f>IF(AND($B13&gt;=1,$B13&lt;=15),VLOOKUP($B13,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Diretor de Divisão</v>
       </c>
       <c r="D13">
-        <f>IF(AND($B13&gt;=1,$B13&lt;=15),VLOOKUP($B13,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>19960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <f t="shared" si="2"/>
+        <v>22000</v>
+      </c>
+      <c r="F13" s="28">
+        <f>VLOOKUP(D13,INSS,3,TRUE)*E13</f>
+        <v>2200</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <f>VLOOKUP($G13,IRRF,3,TRUE)*E13</f>
+        <v>440</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="3"/>
+        <v>48921690</v>
+      </c>
+      <c r="N13" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>97022937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B10)," ",Funcionários!C10," ", PROPER(Funcionários!A10)))</f>
         <v>Mario Antonio de Abreu</v>
@@ -930,19 +1338,38 @@
         <v>2</v>
       </c>
       <c r="C14" t="str">
-        <f>IF(AND($B14&gt;=1,$B14&lt;=15),VLOOKUP($B14,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D14">
-        <f>IF(AND($B14&gt;=1,$B14&lt;=15),VLOOKUP($B14,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>5988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+      <c r="F14" s="28">
+        <f>VLOOKUP(D14,INSS,3,TRUE)*E14</f>
+        <v>462.00000000000006</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="28">
+        <f>VLOOKUP($G14,IRRF,3,TRUE)*E14</f>
+        <v>264</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="3"/>
+        <v>49330738</v>
+      </c>
+      <c r="N14" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>35682034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B11)," ",Funcionários!C11," ", PROPER(Funcionários!A11)))</f>
         <v>Wanda Silva Juliano</v>
@@ -951,19 +1378,38 @@
         <v>3</v>
       </c>
       <c r="C15" t="str">
-        <f>IF(AND($B15&gt;=1,$B15&lt;=15),VLOOKUP($B15,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Cobrança</v>
       </c>
       <c r="D15">
-        <f>IF(AND($B15&gt;=1,$B15&lt;=15),VLOOKUP($B15,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>6986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+      <c r="F15" s="28">
+        <f>VLOOKUP(D15,INSS,3,TRUE)*E15</f>
+        <v>539</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="28">
+        <f>VLOOKUP($G15,IRRF,3,TRUE)*E15</f>
+        <v>154</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="3"/>
+        <v>15195319</v>
+      </c>
+      <c r="N15" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>12147473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B12)," ",Funcionários!C12," ", PROPER(Funcionários!A12)))</f>
         <v>Antonio da Silva</v>
@@ -972,19 +1418,38 @@
         <v>4</v>
       </c>
       <c r="C16" t="str">
-        <f>IF(AND($B16&gt;=1,$B16&lt;=15),VLOOKUP($B16,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Expedição</v>
       </c>
       <c r="D16">
-        <f>IF(AND($B16&gt;=1,$B16&lt;=15),VLOOKUP($B16,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>6986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+      <c r="F16" s="28">
+        <f>VLOOKUP(D16,INSS,3,TRUE)*E16</f>
+        <v>539</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="28">
+        <f>VLOOKUP($G16,IRRF,3,TRUE)*E16</f>
+        <v>154</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="3"/>
+        <v>39839922</v>
+      </c>
+      <c r="N16" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>53648625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B13)," ",Funcionários!C13," ", PROPER(Funcionários!A13)))</f>
         <v>Cezar Pedro de Jesus</v>
@@ -993,19 +1458,38 @@
         <v>5</v>
       </c>
       <c r="C17" t="str">
-        <f>IF(AND($B17&gt;=1,$B17&lt;=15),VLOOKUP($B17,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Contador</v>
       </c>
       <c r="D17">
-        <f>IF(AND($B17&gt;=1,$B17&lt;=15),VLOOKUP($B17,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>12974</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <f t="shared" si="2"/>
+        <v>14300</v>
+      </c>
+      <c r="F17" s="28">
+        <f>VLOOKUP(D17,INSS,3,TRUE)*E17</f>
+        <v>1430</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
+        <f>VLOOKUP($G17,IRRF,3,TRUE)*E17</f>
+        <v>286</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="3"/>
+        <v>87743044</v>
+      </c>
+      <c r="N17" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>33851749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B14)," ",Funcionários!C14," ", PROPER(Funcionários!A14)))</f>
         <v>Abel de Souza</v>
@@ -1014,19 +1498,38 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>IF(AND($B18&gt;=1,$B18&lt;=15),VLOOKUP($B18,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Análista de Salários</v>
       </c>
       <c r="D18">
-        <f>IF(AND($B18&gt;=1,$B18&lt;=15),VLOOKUP($B18,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>9980</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="F18" s="28">
+        <f>VLOOKUP(D18,INSS,3,TRUE)*E18</f>
+        <v>935.00000000000011</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="28">
+        <f>VLOOKUP($G18,IRRF,3,TRUE)*E18</f>
+        <v>440</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="3"/>
+        <v>58726787</v>
+      </c>
+      <c r="N18" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>81656622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B15)," ",Funcionários!C15," ", PROPER(Funcionários!A15)))</f>
         <v>Antonia de Marinho</v>
@@ -1035,19 +1538,38 @@
         <v>2</v>
       </c>
       <c r="C19" t="str">
-        <f>IF(AND($B19&gt;=1,$B19&lt;=15),VLOOKUP($B19,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D19">
-        <f>IF(AND($B19&gt;=1,$B19&lt;=15),VLOOKUP($B19,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>5988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+      <c r="F19" s="28">
+        <f>VLOOKUP(D19,INSS,3,TRUE)*E19</f>
+        <v>462.00000000000006</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="28">
+        <f>VLOOKUP($G19,IRRF,3,TRUE)*E19</f>
+        <v>264</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="3"/>
+        <v>32577183</v>
+      </c>
+      <c r="N19" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>36725367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B16)," ",Funcionários!C16," ", PROPER(Funcionários!A16)))</f>
         <v>Josefa de Malaquias</v>
@@ -1056,55 +1578,207 @@
         <v>3</v>
       </c>
       <c r="C20" t="str">
-        <f>IF(AND($B20&gt;=1,$B20&lt;=15),VLOOKUP($B20,Cargos,2,FALSE), "Cargo Inexistente")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Cobrança</v>
       </c>
       <c r="D20">
-        <f>IF(AND($B20&gt;=1,$B20&lt;=15),VLOOKUP($B20,Cargos,3,FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>6986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+      <c r="F20" s="28">
+        <f>VLOOKUP(D20,INSS,3,TRUE)*E20</f>
+        <v>539</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <f>VLOOKUP($G20,IRRF,3,TRUE)*E20</f>
+        <v>154</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="3"/>
+        <v>59139987</v>
+      </c>
+      <c r="N20" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>61435414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B17)," ",Funcionários!C17," ", PROPER(Funcionários!A17)))</f>
         <v>Sonia Silva</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="str">
-        <f>IF(AND($B21&gt;=1,$B21&lt;=15),VLOOKUP($B21,Cargos,2,FALSE), "Cargo Inexistente")</f>
-        <v>Auxiliar de Escritório</v>
+        <f t="shared" si="0"/>
+        <v>Diretor de Divisão</v>
       </c>
       <c r="D21">
-        <f>IF(AND($B21&gt;=1,$B21&lt;=15),VLOOKUP($B21,Cargos,3,FALSE), "")</f>
-        <v>4</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>3992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>TRIM(CONCATENATE(PROPER(Funcionários!B18)," ",Funcionários!C18," ", PROPER(Funcionários!A18)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>TRIM(CONCATENATE(PROPER(Funcionários!B19)," ",Funcionários!C19," ", PROPER(Funcionários!A19)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>TRIM(CONCATENATE(PROPER(Funcionários!B20)," ",Funcionários!C20," ", PROPER(Funcionários!A20)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
+        <v>22000</v>
+      </c>
+      <c r="F21" s="28">
+        <f>VLOOKUP(D21,INSS,3,TRUE)*E21</f>
+        <v>2200</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="28">
+        <f>VLOOKUP($G21,IRRF,3,TRUE)*E21</f>
+        <v>440</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="3"/>
+        <v>50265069</v>
+      </c>
+      <c r="N21" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>73833720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="19">
+        <f>SUM(SalariosBrutos)</f>
+        <v>184800</v>
+      </c>
+      <c r="F22" s="20">
+        <f>SUM(INSSs)</f>
+        <v>16368</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20">
+        <f>SUM(H6:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
+        <f>SUM(I6:I21)</f>
+        <v>5478</v>
+      </c>
+      <c r="J22" s="20">
+        <f>SUM(J6:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
+        <f>SUM(SalariosLiquidos)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="22">
+        <f>AVERAGE(E6:E21)</f>
+        <v>11550</v>
+      </c>
+      <c r="F23" s="22">
+        <f>AVERAGE(F6:F21)</f>
+        <v>1023</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="e">
+        <f>AVERAGE(H6:H21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="22">
+        <f>AVERAGE(I6:I21)</f>
+        <v>342.375</v>
+      </c>
+      <c r="J23" s="22" t="e">
+        <f>AVERAGE(J6:J21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="23" t="e">
+        <f>AVERAGE(K6:K21)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="20">
+        <f>MAX(E6:E21)</f>
+        <v>22000</v>
+      </c>
+      <c r="F24" s="20">
+        <f>MAX(F6:F21)</f>
+        <v>2200</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20">
+        <f>MAX(H6:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="20">
+        <f>MAX(I6:I21)</f>
+        <v>880</v>
+      </c>
+      <c r="J24" s="20">
+        <f>MAX(J6:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="24">
+        <f>MAX(K6:K21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="25">
+        <f>MIN(E6:E21)</f>
+        <v>6600</v>
+      </c>
+      <c r="F25" s="25">
+        <f>MIN(F6:F21)</f>
+        <v>462.00000000000006</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25">
+        <f>MIN(H6:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="25">
+        <f>MIN(I6:I21)</f>
+        <v>132</v>
+      </c>
+      <c r="J25" s="25">
+        <f>MIN(J6:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="26">
+        <f>MIN(K6:K21)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1112,6 +1786,11 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1123,7 +1802,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -1131,7 +1810,7 @@
     <col min="5" max="5" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1142,7 +1821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1836,7 @@
         <v>José Carlos de Almeida</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1848,7 @@
         <v>Marisa Abreu Silva</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1184,7 +1863,7 @@
         <v>Pedro de Almeida</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1196,7 +1875,7 @@
         <v>Vera Jesus</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1887,7 @@
         <v>Mario Paulo Simões</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1223,7 +1902,7 @@
         <v>Sheila Maria de Souza</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1235,7 +1914,7 @@
         <v>Maria Lourdes Garcia</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1929,7 @@
         <v>Juliana da Silva</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1265,7 +1944,7 @@
         <v>Mario Antonio de Abreu</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1277,7 +1956,7 @@
         <v>Wanda Silva Juliano</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1292,7 +1971,7 @@
         <v>Antonio da Silva</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1986,7 @@
         <v>Cezar Pedro de Jesus</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +2001,7 @@
         <v>Abel de Souza</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +2016,7 @@
         <v>Antonia de Marinho</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +2031,7 @@
         <v>Josefa de Malaquias</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1374,22 +2053,22 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1400,7 +2079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1411,7 +2090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1422,7 +2101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1433,7 +2112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1444,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1455,7 +2134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1466,7 +2145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1477,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1488,7 +2167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1499,7 +2178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1510,7 +2189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1521,7 +2200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1532,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1543,7 +2222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1554,7 +2233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1571,4 +2250,273 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,Cargos,2,FALSE)</f>
+        <v>Chefe de Cobrança</v>
+      </c>
+      <c r="C2" s="3">
+        <f>DSUM(tabfunc,5,A1:B2)</f>
+        <v>23100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="17">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="17">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17">
+        <v>9</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="17">
+        <v>10</v>
+      </c>
+      <c r="B9" s="17">
+        <v>11</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="17">
+        <v>12</v>
+      </c>
+      <c r="B10" s="17">
+        <v>13</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="17">
+        <v>14</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Pedro/Folha de Pagamento-com-funcao.xlsx
+++ b/Pedro/Folha de Pagamento-com-funcao.xlsx
@@ -13,14 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Folha de Pagamento" sheetId="2" r:id="rId1"/>
-    <sheet name="Funcionários" sheetId="1" r:id="rId2"/>
-    <sheet name="Cargos" sheetId="3" r:id="rId3"/>
-    <sheet name="Cargos Folha" sheetId="6" r:id="rId4"/>
-    <sheet name="INSS" sheetId="4" r:id="rId5"/>
-    <sheet name="IRRF" sheetId="5" r:id="rId6"/>
+    <sheet name="Exerc 23-10" sheetId="7" r:id="rId2"/>
+    <sheet name="Funcionários" sheetId="1" r:id="rId3"/>
+    <sheet name="Cargos" sheetId="3" r:id="rId4"/>
+    <sheet name="Cargos Folha" sheetId="6" r:id="rId5"/>
+    <sheet name="INSS" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="IRRF" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Cargos">Cargos!$A$3:$C$17</definedName>
+    <definedName name="cotacao" localSheetId="1">'Exerc 23-10'!$A$1:$N$13</definedName>
+    <definedName name="cotacao" localSheetId="0">'Folha de Pagamento'!$P$5:$AC$17</definedName>
     <definedName name="INSS">INSS!$A$4:$C$7</definedName>
     <definedName name="INSSs">'Folha de Pagamento'!$F$6:$F$21</definedName>
     <definedName name="IRRF">IRRF!$A$4:$C$11</definedName>
@@ -46,8 +49,27 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Conexão" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://notebook/excel/cotacao.html" htmlTables="1">
+      <tables count="1">
+        <x v="2"/>
+      </tables>
+    </webPr>
+  </connection>
+  <connection id="2" name="Conexão1" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://notebook/excel/cotacao.html" htmlTables="1">
+      <tables count="1">
+        <x v="2"/>
+      </tables>
+    </webPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>Silva</t>
   </si>
@@ -281,17 +303,63 @@
   </si>
   <si>
     <t>Total Bruto</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Julho</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Setembro</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>Novembro</t>
+  </si>
+  <si>
+    <t>Dezembro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janeiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maio </t>
+  </si>
+  <si>
+    <t>Atividade 23/10/2021 (Folha em Dólares)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="mmmm\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mmmm\,\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +404,13 @@
       <color theme="1"/>
       <name val="Barcode"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -357,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -464,22 +539,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,9 +576,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,9 +590,33 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -530,6 +635,23 @@
         <name val="Barcode"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -554,23 +676,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -584,8 +689,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cotacao" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cotacao" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A5:K25" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A5:K25" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A5:K25"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Funcionário"/>
@@ -916,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -930,76 +1043,95 @@
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="P2" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3">
         <v>1100</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="28">
         <f>DATE(2021,10,2)</f>
         <v>44471</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:29">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M5" t="s">
@@ -1008,13 +1140,53 @@
       <c r="N5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32">
+        <v>2007</v>
+      </c>
+      <c r="R5" s="32">
+        <v>2008</v>
+      </c>
+      <c r="S5" s="32">
+        <v>2009</v>
+      </c>
+      <c r="T5" s="32">
+        <v>2010</v>
+      </c>
+      <c r="U5" s="32">
+        <v>2011</v>
+      </c>
+      <c r="V5" s="32">
+        <v>2012</v>
+      </c>
+      <c r="W5" s="32">
+        <v>2013</v>
+      </c>
+      <c r="X5" s="32">
+        <v>2014</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>2015</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>2016</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>2017</v>
+      </c>
+      <c r="AB5" s="32">
+        <v>2018</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B2)," ",Funcionários!C2," ", PROPER(Funcionários!A2)))</f>
         <v>José Carlos de Almeida</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="27">
         <v>2</v>
       </c>
       <c r="C6" t="str">
@@ -1029,32 +1201,86 @@
         <f>PRODUCT(D6*B$3)</f>
         <v>6600</v>
       </c>
-      <c r="F6" s="28">
-        <f>VLOOKUP(D6,INSS,3,TRUE)*E6</f>
+      <c r="F6" s="24">
+        <f t="shared" ref="F6:F21" si="2">VLOOKUP(D6,INSS,3,TRUE)*E6</f>
         <v>462.00000000000006</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="27">
         <v>1</v>
       </c>
-      <c r="I6" s="28">
-        <f>VLOOKUP($G6,IRRF,3,TRUE)*E6</f>
+      <c r="H6" s="3">
+        <f>IF(C6="ERRO!!!",0,B$3/8*G6)</f>
+        <v>137.5</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" ref="I6:I21" si="3">VLOOKUP($G6,IRRF,3,TRUE)*E6</f>
         <v>132</v>
+      </c>
+      <c r="J6" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>594</v>
+      </c>
+      <c r="K6" s="24">
+        <f>E6-J6</f>
+        <v>6006</v>
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(10000000,99999999)</f>
-        <v>68052689</v>
-      </c>
-      <c r="N6" s="29">
+        <v>30139203</v>
+      </c>
+      <c r="N6" s="25">
         <f ca="1">RANDBETWEEN(10000000,99999999)</f>
-        <v>64948622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>17807188</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="R6" s="32">
+        <v>1.774</v>
+      </c>
+      <c r="S6" s="32">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="T6" s="32">
+        <v>1.778</v>
+      </c>
+      <c r="U6" s="32">
+        <v>1.675</v>
+      </c>
+      <c r="V6" s="32">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="W6" s="32">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="X6" s="32">
+        <v>2.3820000000000001</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="AA6" s="32">
+        <v>3.1970000000000001</v>
+      </c>
+      <c r="AB6" s="32">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="AC6" s="32">
+        <v>3.7349999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B3)," ",Funcionários!C3," ", PROPER(Funcionários!A3)))</f>
         <v>Marisa Abreu Silva</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="27">
         <v>2</v>
       </c>
       <c r="C7" t="str">
@@ -1066,35 +1292,89 @@
         <v>6</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:E21" si="2">PRODUCT(D7*B$3)</f>
+        <f t="shared" ref="E7:E21" si="4">PRODUCT(D7*B$3)</f>
         <v>6600</v>
       </c>
-      <c r="F7" s="28">
-        <f>VLOOKUP(D7,INSS,3,TRUE)*E7</f>
+      <c r="F7" s="24">
+        <f t="shared" si="2"/>
         <v>462.00000000000006</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="27">
         <v>2</v>
       </c>
-      <c r="I7" s="28">
-        <f>VLOOKUP($G7,IRRF,3,TRUE)*E7</f>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:H21" si="5">IF(C7="ERRO!!!",0,B$3/8*G7)</f>
+        <v>275</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="3"/>
         <v>264</v>
       </c>
+      <c r="J7" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>726</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" ref="K7:K21" si="6">E7-J7</f>
+        <v>5874</v>
+      </c>
       <c r="M7">
-        <f t="shared" ref="M7:N21" ca="1" si="3">RANDBETWEEN(10000000,99999999)</f>
-        <v>97173395</v>
-      </c>
-      <c r="N7" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>27299939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <f t="shared" ref="M7:N21" ca="1" si="7">RANDBETWEEN(10000000,99999999)</f>
+        <v>72332097</v>
+      </c>
+      <c r="N7" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>61960350</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="R7" s="32">
+        <v>1.728</v>
+      </c>
+      <c r="S7" s="32">
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="T7" s="32">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="U7" s="32">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="V7" s="32">
+        <v>1.718</v>
+      </c>
+      <c r="W7" s="32">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="X7" s="32">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>2.8170000000000002</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>3.9780000000000002</v>
+      </c>
+      <c r="AA7" s="32">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="AB7" s="32">
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>3.718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B4)," ",Funcionários!C4," ", PROPER(Funcionários!A4)))</f>
         <v>Pedro de Almeida</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="27">
         <v>3</v>
       </c>
       <c r="C8" t="str">
@@ -1106,35 +1386,89 @@
         <v>7</v>
       </c>
       <c r="E8" s="3">
+        <f t="shared" si="4"/>
+        <v>7700</v>
+      </c>
+      <c r="F8" s="24">
         <f t="shared" si="2"/>
-        <v>7700</v>
-      </c>
-      <c r="F8" s="28">
-        <f>VLOOKUP(D8,INSS,3,TRUE)*E8</f>
         <v>539</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="27">
         <v>3</v>
       </c>
-      <c r="I8" s="28">
-        <f>VLOOKUP($G8,IRRF,3,TRUE)*E8</f>
+      <c r="H8" s="3">
+        <f t="shared" si="5"/>
+        <v>412.5</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="3"/>
         <v>308</v>
       </c>
+      <c r="J8" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>847</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="6"/>
+        <v>6853</v>
+      </c>
       <c r="M8">
-        <f t="shared" ca="1" si="3"/>
-        <v>78767944</v>
-      </c>
-      <c r="N8" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>90575355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>25112979</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>21046122</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>2.089</v>
+      </c>
+      <c r="R8" s="32">
+        <v>1.708</v>
+      </c>
+      <c r="S8" s="32">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="T8" s="32">
+        <v>1.786</v>
+      </c>
+      <c r="U8" s="32">
+        <v>1.659</v>
+      </c>
+      <c r="V8" s="32">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="W8" s="32">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="X8" s="32">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>3.14</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>3.694</v>
+      </c>
+      <c r="AA8" s="32">
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="AB8" s="32">
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="AC8" s="32">
+        <v>3.8370000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B5)," ",Funcionários!C5," ", PROPER(Funcionários!A5)))</f>
         <v>Vera Jesus</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="27">
         <v>4</v>
       </c>
       <c r="C9" t="str">
@@ -1146,35 +1480,87 @@
         <v>7</v>
       </c>
       <c r="E9" s="3">
+        <f t="shared" si="4"/>
+        <v>7700</v>
+      </c>
+      <c r="F9" s="24">
         <f t="shared" si="2"/>
-        <v>7700</v>
-      </c>
-      <c r="F9" s="28">
-        <f>VLOOKUP(D9,INSS,3,TRUE)*E9</f>
         <v>539</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="27">
         <v>0</v>
       </c>
-      <c r="I9" s="28">
-        <f>VLOOKUP($G9,IRRF,3,TRUE)*E9</f>
+      <c r="H9" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
+      <c r="J9" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>693</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="6"/>
+        <v>7007</v>
+      </c>
       <c r="M9">
-        <f t="shared" ca="1" si="3"/>
-        <v>14159517</v>
-      </c>
-      <c r="N9" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>40843336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>70576078</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>64084647</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="R9" s="32">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="S9" s="32">
+        <v>2.206</v>
+      </c>
+      <c r="T9" s="32">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="U9" s="32">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="V9" s="32">
+        <v>1.855</v>
+      </c>
+      <c r="W9" s="32">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="X9" s="32">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>3.044</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>3.5510000000000002</v>
+      </c>
+      <c r="AA9" s="32">
+        <v>3.14</v>
+      </c>
+      <c r="AB9" s="32">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="AC9" s="32"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B6)," ",Funcionários!C6," ", PROPER(Funcionários!A6)))</f>
         <v>Mario Paulo Simões</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="27">
         <v>5</v>
       </c>
       <c r="C10" t="str">
@@ -1186,35 +1572,87 @@
         <v>13</v>
       </c>
       <c r="E10" s="3">
+        <f t="shared" si="4"/>
+        <v>14300</v>
+      </c>
+      <c r="F10" s="24">
         <f t="shared" si="2"/>
-        <v>14300</v>
-      </c>
-      <c r="F10" s="28">
-        <f>VLOOKUP(D10,INSS,3,TRUE)*E10</f>
         <v>1430</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="27">
         <v>0</v>
       </c>
-      <c r="I10" s="28">
-        <f>VLOOKUP($G10,IRRF,3,TRUE)*E10</f>
+      <c r="H10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="3"/>
         <v>286</v>
       </c>
+      <c r="J10" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>1716</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="6"/>
+        <v>12584</v>
+      </c>
       <c r="M10">
-        <f t="shared" ca="1" si="3"/>
-        <v>76128604</v>
-      </c>
-      <c r="N10" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>58842725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>79446737</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>11904475</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>1.982</v>
+      </c>
+      <c r="R10" s="32">
+        <v>1.661</v>
+      </c>
+      <c r="S10" s="32">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="T10" s="32">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="U10" s="32">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="V10" s="32">
+        <v>1.986</v>
+      </c>
+      <c r="W10" s="32">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="X10" s="32">
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>3.5489999999999999</v>
+      </c>
+      <c r="AA10" s="32">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="AB10" s="32">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="AC10" s="32"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B7)," ",Funcionários!C7," ", PROPER(Funcionários!A7)))</f>
         <v>Sheila Maria de Souza</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="27">
         <v>6</v>
       </c>
       <c r="C11" t="str">
@@ -1226,35 +1664,87 @@
         <v>20</v>
       </c>
       <c r="E11" s="3">
+        <f t="shared" si="4"/>
+        <v>22000</v>
+      </c>
+      <c r="F11" s="24">
         <f t="shared" si="2"/>
-        <v>22000</v>
-      </c>
-      <c r="F11" s="28">
-        <f>VLOOKUP(D11,INSS,3,TRUE)*E11</f>
         <v>2200</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="27">
         <v>3</v>
       </c>
-      <c r="I11" s="28">
-        <f>VLOOKUP($G11,IRRF,3,TRUE)*E11</f>
+      <c r="H11" s="3">
+        <f t="shared" si="5"/>
+        <v>412.5</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="3"/>
         <v>880</v>
       </c>
+      <c r="J11" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>3080</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" si="6"/>
+        <v>18920</v>
+      </c>
       <c r="M11">
-        <f t="shared" ca="1" si="3"/>
-        <v>31621498</v>
-      </c>
-      <c r="N11" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>41405191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>76561640</v>
+      </c>
+      <c r="N11" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>40285797</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="R11" s="32">
+        <v>1.619</v>
+      </c>
+      <c r="S11" s="32">
+        <v>1.958</v>
+      </c>
+      <c r="T11" s="32">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="U11" s="32">
+        <v>1.587</v>
+      </c>
+      <c r="V11" s="32">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="W11" s="32">
+        <v>2.173</v>
+      </c>
+      <c r="X11" s="32">
+        <v>2.2360000000000002</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>3.1110000000000002</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="AA11" s="32">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="AB11" s="32">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="AC11" s="32"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B8)," ",Funcionários!C8," ", PROPER(Funcionários!A8)))</f>
         <v>Maria Lourdes Garcia</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="27">
         <v>5</v>
       </c>
       <c r="C12" t="str">
@@ -1266,35 +1756,87 @@
         <v>13</v>
       </c>
       <c r="E12" s="3">
+        <f t="shared" si="4"/>
+        <v>14300</v>
+      </c>
+      <c r="F12" s="24">
         <f t="shared" si="2"/>
-        <v>14300</v>
-      </c>
-      <c r="F12" s="28">
-        <f>VLOOKUP(D12,INSS,3,TRUE)*E12</f>
         <v>1430</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="27">
         <v>4</v>
       </c>
-      <c r="I12" s="28">
-        <f>VLOOKUP($G12,IRRF,3,TRUE)*E12</f>
+      <c r="H12" s="3">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="3"/>
         <v>858</v>
       </c>
+      <c r="J12" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>2288</v>
+      </c>
+      <c r="K12" s="24">
+        <f t="shared" si="6"/>
+        <v>12012</v>
+      </c>
       <c r="M12">
-        <f t="shared" ca="1" si="3"/>
-        <v>43771803</v>
-      </c>
-      <c r="N12" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>68234519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>52759792</v>
+      </c>
+      <c r="N12" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>83203707</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="R12" s="32">
+        <v>1.591</v>
+      </c>
+      <c r="S12" s="32">
+        <v>1.93</v>
+      </c>
+      <c r="T12" s="32">
+        <v>1.77</v>
+      </c>
+      <c r="U12" s="32">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="V12" s="32">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="W12" s="32">
+        <v>2.2519999999999998</v>
+      </c>
+      <c r="X12" s="32">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="Y12" s="32">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>3.278</v>
+      </c>
+      <c r="AA12" s="32">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="AB12" s="32">
+        <v>3.823</v>
+      </c>
+      <c r="AC12" s="32"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B9)," ",Funcionários!C9," ", PROPER(Funcionários!A9)))</f>
         <v>Juliana da Silva</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="27">
         <v>6</v>
       </c>
       <c r="C13" t="str">
@@ -1306,35 +1848,87 @@
         <v>20</v>
       </c>
       <c r="E13" s="3">
+        <f t="shared" si="4"/>
+        <v>22000</v>
+      </c>
+      <c r="F13" s="24">
         <f t="shared" si="2"/>
-        <v>22000</v>
-      </c>
-      <c r="F13" s="28">
-        <f>VLOOKUP(D13,INSS,3,TRUE)*E13</f>
         <v>2200</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="27">
         <v>0</v>
       </c>
-      <c r="I13" s="28">
-        <f>VLOOKUP($G13,IRRF,3,TRUE)*E13</f>
+      <c r="H13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
+      <c r="J13" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>2640</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" si="6"/>
+        <v>19360</v>
+      </c>
       <c r="M13">
-        <f t="shared" ca="1" si="3"/>
-        <v>48921690</v>
-      </c>
-      <c r="N13" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>97022937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>21852729</v>
+      </c>
+      <c r="N13" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>99612392</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>1.966</v>
+      </c>
+      <c r="R13" s="32">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="S13" s="32">
+        <v>1.845</v>
+      </c>
+      <c r="T13" s="32">
+        <v>1.76</v>
+      </c>
+      <c r="U13" s="32">
+        <v>1.597</v>
+      </c>
+      <c r="V13" s="32">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="W13" s="32">
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="X13" s="32">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="Y13" s="32">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="Z13" s="32">
+        <v>3.2080000000000002</v>
+      </c>
+      <c r="AA13" s="32">
+        <v>3.153</v>
+      </c>
+      <c r="AB13" s="32">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="AC13" s="32"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B10)," ",Funcionários!C10," ", PROPER(Funcionários!A10)))</f>
         <v>Mario Antonio de Abreu</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="27">
         <v>2</v>
       </c>
       <c r="C14" t="str">
@@ -1346,35 +1940,87 @@
         <v>6</v>
       </c>
       <c r="E14" s="3">
+        <f t="shared" si="4"/>
+        <v>6600</v>
+      </c>
+      <c r="F14" s="24">
         <f t="shared" si="2"/>
-        <v>6600</v>
-      </c>
-      <c r="F14" s="28">
-        <f>VLOOKUP(D14,INSS,3,TRUE)*E14</f>
         <v>462.00000000000006</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="27">
         <v>2</v>
       </c>
-      <c r="I14" s="28">
-        <f>VLOOKUP($G14,IRRF,3,TRUE)*E14</f>
+      <c r="H14" s="3">
+        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="3"/>
         <v>264</v>
       </c>
+      <c r="J14" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>726</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" si="6"/>
+        <v>5874</v>
+      </c>
       <c r="M14">
-        <f t="shared" ca="1" si="3"/>
-        <v>49330738</v>
-      </c>
-      <c r="N14" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>35682034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>28397869</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>75497561</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="R14" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="S14" s="32">
+        <v>1.82</v>
+      </c>
+      <c r="T14" s="32">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="U14" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="V14" s="32">
+        <v>2.028</v>
+      </c>
+      <c r="W14" s="32">
+        <v>2.27</v>
+      </c>
+      <c r="X14" s="32">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>3.8959999999999999</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>3.2559999999999998</v>
+      </c>
+      <c r="AA14" s="32">
+        <v>3.1379999999999999</v>
+      </c>
+      <c r="AB14" s="32">
+        <v>4.1079999999999997</v>
+      </c>
+      <c r="AC14" s="32"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B11)," ",Funcionários!C11," ", PROPER(Funcionários!A11)))</f>
         <v>Wanda Silva Juliano</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="27">
         <v>3</v>
       </c>
       <c r="C15" t="str">
@@ -1386,35 +2032,87 @@
         <v>7</v>
       </c>
       <c r="E15" s="3">
+        <f t="shared" si="4"/>
+        <v>7700</v>
+      </c>
+      <c r="F15" s="24">
         <f t="shared" si="2"/>
-        <v>7700</v>
-      </c>
-      <c r="F15" s="28">
-        <f>VLOOKUP(D15,INSS,3,TRUE)*E15</f>
         <v>539</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="27">
         <v>1</v>
       </c>
-      <c r="I15" s="28">
-        <f>VLOOKUP($G15,IRRF,3,TRUE)*E15</f>
+      <c r="H15" s="3">
+        <f t="shared" si="5"/>
+        <v>137.5</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
+      <c r="J15" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>693</v>
+      </c>
+      <c r="K15" s="24">
+        <f t="shared" si="6"/>
+        <v>7007</v>
+      </c>
       <c r="M15">
-        <f t="shared" ca="1" si="3"/>
-        <v>15195319</v>
-      </c>
-      <c r="N15" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>12147473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>44217604</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>76123393</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="R15" s="32">
+        <v>2.173</v>
+      </c>
+      <c r="S15" s="32">
+        <v>1.738</v>
+      </c>
+      <c r="T15" s="32">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="U15" s="32">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="V15" s="32">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="W15" s="32">
+        <v>2.1890000000000001</v>
+      </c>
+      <c r="X15" s="32">
+        <v>2.448</v>
+      </c>
+      <c r="Y15" s="32">
+        <v>3.8759999999999999</v>
+      </c>
+      <c r="Z15" s="32">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="AA15" s="32">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="AB15" s="32">
+        <v>3.7610000000000001</v>
+      </c>
+      <c r="AC15" s="32"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B12)," ",Funcionários!C12," ", PROPER(Funcionários!A12)))</f>
         <v>Antonio da Silva</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="27">
         <v>4</v>
       </c>
       <c r="C16" t="str">
@@ -1426,35 +2124,87 @@
         <v>7</v>
       </c>
       <c r="E16" s="3">
+        <f t="shared" si="4"/>
+        <v>7700</v>
+      </c>
+      <c r="F16" s="24">
         <f t="shared" si="2"/>
-        <v>7700</v>
-      </c>
-      <c r="F16" s="28">
-        <f>VLOOKUP(D16,INSS,3,TRUE)*E16</f>
         <v>539</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="27">
         <v>1</v>
       </c>
-      <c r="I16" s="28">
-        <f>VLOOKUP($G16,IRRF,3,TRUE)*E16</f>
+      <c r="H16" s="3">
+        <f t="shared" si="5"/>
+        <v>137.5</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
+      <c r="J16" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>693</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="6"/>
+        <v>7007</v>
+      </c>
       <c r="M16">
-        <f t="shared" ca="1" si="3"/>
-        <v>39839922</v>
-      </c>
-      <c r="N16" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>53648625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>85992525</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>68460042</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>1.77</v>
+      </c>
+      <c r="R16" s="32">
+        <v>2.266</v>
+      </c>
+      <c r="S16" s="32">
+        <v>1.726</v>
+      </c>
+      <c r="T16" s="32">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="U16" s="32">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="V16" s="32">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="W16" s="32">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="X16" s="32">
+        <v>2.5379999999999998</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>3.778</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>3.339</v>
+      </c>
+      <c r="AA16" s="32">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="AB16" s="32">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="AC16" s="32"/>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B13)," ",Funcionários!C13," ", PROPER(Funcionários!A13)))</f>
         <v>Cezar Pedro de Jesus</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="27">
         <v>5</v>
       </c>
       <c r="C17" t="str">
@@ -1466,35 +2216,87 @@
         <v>13</v>
       </c>
       <c r="E17" s="3">
+        <f t="shared" si="4"/>
+        <v>14300</v>
+      </c>
+      <c r="F17" s="24">
         <f t="shared" si="2"/>
-        <v>14300</v>
-      </c>
-      <c r="F17" s="28">
-        <f>VLOOKUP(D17,INSS,3,TRUE)*E17</f>
         <v>1430</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="27">
         <v>0</v>
       </c>
-      <c r="I17" s="28">
-        <f>VLOOKUP($G17,IRRF,3,TRUE)*E17</f>
+      <c r="H17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" si="3"/>
         <v>286</v>
       </c>
+      <c r="J17" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>1716</v>
+      </c>
+      <c r="K17" s="24">
+        <f t="shared" si="6"/>
+        <v>12584</v>
+      </c>
       <c r="M17">
-        <f t="shared" ca="1" si="3"/>
-        <v>87743044</v>
-      </c>
-      <c r="N17" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>33851749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>67315428</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>42229429</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="R17" s="32">
+        <v>2.3980000000000001</v>
+      </c>
+      <c r="S17" s="32">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="T17" s="32">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="U17" s="32">
+        <v>1.837</v>
+      </c>
+      <c r="V17" s="32">
+        <v>2.08</v>
+      </c>
+      <c r="W17" s="32">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="X17" s="32">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>3.8690000000000002</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>3.351</v>
+      </c>
+      <c r="AA17" s="32">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="AB17" s="32">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="AC17" s="32"/>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B14)," ",Funcionários!C14," ", PROPER(Funcionários!A14)))</f>
         <v>Abel de Souza</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="27">
         <v>1</v>
       </c>
       <c r="C18" t="str">
@@ -1506,35 +2308,47 @@
         <v>10</v>
       </c>
       <c r="E18" s="3">
+        <f t="shared" si="4"/>
+        <v>11000</v>
+      </c>
+      <c r="F18" s="24">
         <f t="shared" si="2"/>
-        <v>11000</v>
-      </c>
-      <c r="F18" s="28">
-        <f>VLOOKUP(D18,INSS,3,TRUE)*E18</f>
         <v>935.00000000000011</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="27">
         <v>3</v>
       </c>
-      <c r="I18" s="28">
-        <f>VLOOKUP($G18,IRRF,3,TRUE)*E18</f>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>412.5</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
+      <c r="J18" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>1375</v>
+      </c>
+      <c r="K18" s="24">
+        <f t="shared" si="6"/>
+        <v>9625</v>
+      </c>
       <c r="M18">
-        <f t="shared" ca="1" si="3"/>
-        <v>58726787</v>
-      </c>
-      <c r="N18" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>81656622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>35835166</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>73118927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B15)," ",Funcionários!C15," ", PROPER(Funcionários!A15)))</f>
         <v>Antonia de Marinho</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="27">
         <v>2</v>
       </c>
       <c r="C19" t="str">
@@ -1546,35 +2360,47 @@
         <v>6</v>
       </c>
       <c r="E19" s="3">
+        <f t="shared" si="4"/>
+        <v>6600</v>
+      </c>
+      <c r="F19" s="24">
         <f t="shared" si="2"/>
-        <v>6600</v>
-      </c>
-      <c r="F19" s="28">
-        <f>VLOOKUP(D19,INSS,3,TRUE)*E19</f>
         <v>462.00000000000006</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="27">
         <v>2</v>
       </c>
-      <c r="I19" s="28">
-        <f>VLOOKUP($G19,IRRF,3,TRUE)*E19</f>
+      <c r="H19" s="3">
+        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+      <c r="I19" s="24">
+        <f t="shared" si="3"/>
         <v>264</v>
       </c>
+      <c r="J19" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>726</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" si="6"/>
+        <v>5874</v>
+      </c>
       <c r="M19">
-        <f t="shared" ca="1" si="3"/>
-        <v>32577183</v>
-      </c>
-      <c r="N19" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>36725367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>77901387</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>47266502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75">
       <c r="A20" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B16)," ",Funcionários!C16," ", PROPER(Funcionários!A16)))</f>
         <v>Josefa de Malaquias</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="27">
         <v>3</v>
       </c>
       <c r="C20" t="str">
@@ -1586,35 +2412,60 @@
         <v>7</v>
       </c>
       <c r="E20" s="3">
+        <f t="shared" si="4"/>
+        <v>7700</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="2"/>
-        <v>7700</v>
-      </c>
-      <c r="F20" s="28">
-        <f>VLOOKUP(D20,INSS,3,TRUE)*E20</f>
         <v>539</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="27">
         <v>0</v>
       </c>
-      <c r="I20" s="28">
-        <f>VLOOKUP($G20,IRRF,3,TRUE)*E20</f>
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
+      <c r="J20" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>693</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="6"/>
+        <v>7007</v>
+      </c>
       <c r="M20">
-        <f t="shared" ca="1" si="3"/>
-        <v>59139987</v>
-      </c>
-      <c r="N20" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>61435414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <f t="shared" ca="1" si="7"/>
+        <v>23504642</v>
+      </c>
+      <c r="N20" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>81306989</v>
+      </c>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33">
+        <v>2016</v>
+      </c>
+      <c r="R20" s="33">
+        <v>2017</v>
+      </c>
+      <c r="S20" s="33">
+        <v>2018</v>
+      </c>
+      <c r="T20" s="33">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.75">
       <c r="A21" t="str">
         <f>TRIM(CONCATENATE(PROPER(Funcionários!B17)," ",Funcionários!C17," ", PROPER(Funcionários!A17)))</f>
         <v>Sonia Silva</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="27">
         <v>6</v>
       </c>
       <c r="C21" t="str">
@@ -1626,175 +2477,994 @@
         <v>20</v>
       </c>
       <c r="E21" s="3">
+        <f t="shared" si="4"/>
+        <v>22000</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="2"/>
-        <v>22000</v>
-      </c>
-      <c r="F21" s="28">
-        <f>VLOOKUP(D21,INSS,3,TRUE)*E21</f>
         <v>2200</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="27">
         <v>1</v>
       </c>
-      <c r="I21" s="28">
-        <f>VLOOKUP($G21,IRRF,3,TRUE)*E21</f>
+      <c r="H21" s="3">
+        <f t="shared" si="5"/>
+        <v>137.5</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
+      <c r="J21" s="3">
+        <f>Tabela1[[#This Row],[INSS]]+Tabela1[[#This Row],[IRRF ]]</f>
+        <v>2640</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" si="6"/>
+        <v>19360</v>
+      </c>
       <c r="M21">
-        <f t="shared" ca="1" si="3"/>
-        <v>50265069</v>
-      </c>
-      <c r="N21" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>73833720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="7" t="s">
+        <f t="shared" ca="1" si="7"/>
+        <v>99720005</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>61808184</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="35">
+        <f>E$22/Z6</f>
+        <v>45584.607794770593</v>
+      </c>
+      <c r="R21" s="35">
+        <f>E$22/AA6</f>
+        <v>57804.191429465121</v>
+      </c>
+      <c r="S21" s="35">
+        <f>E$22/AB6</f>
+        <v>57516.339869281044</v>
+      </c>
+      <c r="T21" s="35">
+        <f>E$22/AC6</f>
+        <v>49477.911646586348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75">
+      <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="19">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="16">
         <f>SUM(SalariosBrutos)</f>
         <v>184800</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <f>SUM(INSSs)</f>
         <v>16368</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17">
         <f>SUM(H6:H21)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="20">
+        <v>3162.5</v>
+      </c>
+      <c r="I22" s="17">
         <f>SUM(I6:I21)</f>
         <v>5478</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="17">
         <f>SUM(J6:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="21">
+        <v>21846</v>
+      </c>
+      <c r="K22" s="18">
         <f>SUM(SalariosLiquidos)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="9" t="s">
+        <v>162954</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="35">
+        <f t="shared" ref="Q22:Q32" si="8">E$22/Z7</f>
+        <v>46455.505279034689</v>
+      </c>
+      <c r="R22" s="35">
+        <f t="shared" ref="R22:R32" si="9">E$22/AA7</f>
+        <v>59555.269094424744</v>
+      </c>
+      <c r="S22" s="35">
+        <f t="shared" ref="S22:S32" si="10">E$22/AB7</f>
+        <v>56984.273820536546</v>
+      </c>
+      <c r="T22" s="35">
+        <f t="shared" ref="T22:T32" si="11">E$22/AC7</f>
+        <v>49704.142011834323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.75">
+      <c r="A23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="22">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="19">
         <f>AVERAGE(E6:E21)</f>
         <v>11550</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="19">
         <f>AVERAGE(F6:F21)</f>
         <v>1023</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22" t="e">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
         <f>AVERAGE(H6:H21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="22">
+        <v>197.65625</v>
+      </c>
+      <c r="I23" s="19">
         <f>AVERAGE(I6:I21)</f>
         <v>342.375</v>
       </c>
-      <c r="J23" s="22" t="e">
+      <c r="J23" s="19">
         <f>AVERAGE(J6:J21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="23" t="e">
+        <v>1365.375</v>
+      </c>
+      <c r="K23" s="20">
         <f>AVERAGE(K6:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="7" t="s">
+        <v>10184.625</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="35">
+        <f t="shared" si="8"/>
+        <v>50027.070925825661</v>
+      </c>
+      <c r="R23" s="35">
+        <f t="shared" si="9"/>
+        <v>59098.177166613372</v>
+      </c>
+      <c r="S23" s="35">
+        <f t="shared" si="10"/>
+        <v>56393.04241684467</v>
+      </c>
+      <c r="T23" s="35">
+        <f t="shared" si="11"/>
+        <v>48162.627052384676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75">
+      <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="20">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="17">
         <f>MAX(E6:E21)</f>
         <v>22000</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <f>MAX(F6:F21)</f>
         <v>2200</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17">
         <f>MAX(H6:H21)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="20">
+        <v>550</v>
+      </c>
+      <c r="I24" s="17">
         <f>MAX(I6:I21)</f>
         <v>880</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="17">
         <f>MAX(J6:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="24">
+        <v>3080</v>
+      </c>
+      <c r="K24" s="21">
         <f>MAX(K6:K21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="14" t="s">
+        <v>19360</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="35">
+        <f t="shared" si="8"/>
+        <v>52041.678400450575</v>
+      </c>
+      <c r="R24" s="35">
+        <f t="shared" si="9"/>
+        <v>58853.503184713372</v>
+      </c>
+      <c r="S24" s="35">
+        <f t="shared" si="10"/>
+        <v>54209.44558521561</v>
+      </c>
+      <c r="T24" s="34"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75">
+      <c r="A25" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="22">
         <f>MIN(E6:E21)</f>
         <v>6600</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="22">
         <f>MIN(F6:F21)</f>
         <v>462.00000000000006</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25">
+      <c r="G25" s="22"/>
+      <c r="H25" s="22">
         <f>MIN(H6:H21)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="22">
         <f>MIN(I6:I21)</f>
         <v>132</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="22">
         <f>MIN(J6:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="26">
+        <v>594</v>
+      </c>
+      <c r="K25" s="23">
         <f>MIN(K6:K21)</f>
-        <v>0</v>
-      </c>
+        <v>5874</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="35">
+        <f t="shared" si="8"/>
+        <v>52071.005917159768</v>
+      </c>
+      <c r="R25" s="35">
+        <f t="shared" si="9"/>
+        <v>57588.033655344341</v>
+      </c>
+      <c r="S25" s="35">
+        <f t="shared" si="10"/>
+        <v>50853.054485415523</v>
+      </c>
+      <c r="T25" s="34"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.75">
+      <c r="P26" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q26" s="35">
+        <f t="shared" si="8"/>
+        <v>54066.705675833822</v>
+      </c>
+      <c r="R26" s="35">
+        <f t="shared" si="9"/>
+        <v>56050.955414012737</v>
+      </c>
+      <c r="S26" s="35">
+        <f t="shared" si="10"/>
+        <v>48850.118953211735</v>
+      </c>
+      <c r="T26" s="34"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.75">
+      <c r="P27" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="35">
+        <f t="shared" si="8"/>
+        <v>56375.838926174496</v>
+      </c>
+      <c r="R27" s="35">
+        <f t="shared" si="9"/>
+        <v>57659.90639625585</v>
+      </c>
+      <c r="S27" s="35">
+        <f t="shared" si="10"/>
+        <v>48339.000784724041</v>
+      </c>
+      <c r="T27" s="34"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.75">
+      <c r="P28" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="35">
+        <f t="shared" si="8"/>
+        <v>57605.985037406477</v>
+      </c>
+      <c r="R28" s="35">
+        <f t="shared" si="9"/>
+        <v>58610.846812559466</v>
+      </c>
+      <c r="S28" s="35">
+        <f t="shared" si="10"/>
+        <v>46987.032799389781</v>
+      </c>
+      <c r="T28" s="34"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.75">
+      <c r="P29" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" s="35">
+        <f t="shared" si="8"/>
+        <v>56756.75675675676</v>
+      </c>
+      <c r="R29" s="35">
+        <f t="shared" si="9"/>
+        <v>58891.013384321224</v>
+      </c>
+      <c r="S29" s="35">
+        <f t="shared" si="10"/>
+        <v>44985.394352482966</v>
+      </c>
+      <c r="T29" s="34"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75">
+      <c r="P30" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="35">
+        <f t="shared" si="8"/>
+        <v>58003.766478342754</v>
+      </c>
+      <c r="R30" s="35">
+        <f t="shared" si="9"/>
+        <v>57822.277847309131</v>
+      </c>
+      <c r="S30" s="35">
+        <f t="shared" si="10"/>
+        <v>49135.868120180799</v>
+      </c>
+      <c r="T30" s="34"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.75">
+      <c r="P31" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q31" s="35">
+        <f t="shared" si="8"/>
+        <v>55345.911949685535</v>
+      </c>
+      <c r="R31" s="35">
+        <f t="shared" si="9"/>
+        <v>56739.330672397911</v>
+      </c>
+      <c r="S31" s="35">
+        <f t="shared" si="10"/>
+        <v>48785.638859556493</v>
+      </c>
+      <c r="T31" s="34"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75">
+      <c r="P32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="35">
+        <f t="shared" si="8"/>
+        <v>55147.717099373323</v>
+      </c>
+      <c r="R32" s="35">
+        <f t="shared" si="9"/>
+        <v>56050.955414012737</v>
+      </c>
+      <c r="S32" s="35">
+        <f t="shared" si="10"/>
+        <v>47579.814624098872</v>
+      </c>
+      <c r="T32" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="P2:AC2"/>
   </mergeCells>
+  <dataValidations xWindow="742" yWindow="342" count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="O número de dependentes ultrapassou os parâmetros" prompt="A quantidade de dependentes não pode causar um salário família maior que 10% do salário bruto do funcionário" sqref="G6:G21">
+      <formula1>G6*H6&lt;(0.1*E6)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="742" yWindow="342" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Verifique novamente os dados" promptTitle="Atenção" prompt="Se atente ao códigos">
+          <x14:formula1>
+            <xm:f>Cargos!$A$3:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32">
+        <v>2007</v>
+      </c>
+      <c r="C1" s="32">
+        <v>2008</v>
+      </c>
+      <c r="D1" s="32">
+        <v>2009</v>
+      </c>
+      <c r="E1" s="32">
+        <v>2010</v>
+      </c>
+      <c r="F1" s="32">
+        <v>2011</v>
+      </c>
+      <c r="G1" s="32">
+        <v>2012</v>
+      </c>
+      <c r="H1" s="32">
+        <v>2013</v>
+      </c>
+      <c r="I1" s="32">
+        <v>2014</v>
+      </c>
+      <c r="J1" s="32">
+        <v>2015</v>
+      </c>
+      <c r="K1" s="32">
+        <v>2016</v>
+      </c>
+      <c r="L1" s="32">
+        <v>2017</v>
+      </c>
+      <c r="M1" s="32">
+        <v>2018</v>
+      </c>
+      <c r="N1" s="32">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="32">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1.774</v>
+      </c>
+      <c r="D2" s="32">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="E2" s="32">
+        <v>1.778</v>
+      </c>
+      <c r="F2" s="32">
+        <v>1.675</v>
+      </c>
+      <c r="G2" s="32">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="H2" s="32">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="I2" s="32">
+        <v>2.3820000000000001</v>
+      </c>
+      <c r="J2" s="32">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="K2" s="32">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="L2" s="32">
+        <v>3.1970000000000001</v>
+      </c>
+      <c r="M2" s="32">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="N2" s="32">
+        <v>3.7349999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="32">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="C3" s="32">
+        <v>1.728</v>
+      </c>
+      <c r="D3" s="32">
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="G3" s="32">
+        <v>1.718</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="I3" s="32">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="J3" s="32">
+        <v>2.8170000000000002</v>
+      </c>
+      <c r="K3" s="32">
+        <v>3.9780000000000002</v>
+      </c>
+      <c r="L3" s="32">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="M3" s="32">
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="N3" s="32">
+        <v>3.718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2.089</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1.708</v>
+      </c>
+      <c r="D4" s="32">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1.786</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1.659</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="I4" s="32">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="J4" s="32">
+        <v>3.14</v>
+      </c>
+      <c r="K4" s="32">
+        <v>3.694</v>
+      </c>
+      <c r="L4" s="32">
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="M4" s="32">
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="N4" s="32">
+        <v>3.8370000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="32">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="D5" s="32">
+        <v>2.206</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1.855</v>
+      </c>
+      <c r="H5" s="32">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="I5" s="32">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="J5" s="32">
+        <v>3.044</v>
+      </c>
+      <c r="K5" s="32">
+        <v>3.5510000000000002</v>
+      </c>
+      <c r="L5" s="32">
+        <v>3.14</v>
+      </c>
+      <c r="M5" s="32">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="N5" s="32"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1.982</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1.661</v>
+      </c>
+      <c r="D6" s="32">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1.986</v>
+      </c>
+      <c r="H6" s="32">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="I6" s="32">
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="J6" s="32">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="K6" s="32">
+        <v>3.5489999999999999</v>
+      </c>
+      <c r="L6" s="32">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="M6" s="32">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="N6" s="32"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1.619</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1.958</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="F7" s="32">
+        <v>1.587</v>
+      </c>
+      <c r="G7" s="32">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="H7" s="32">
+        <v>2.173</v>
+      </c>
+      <c r="I7" s="32">
+        <v>2.2360000000000002</v>
+      </c>
+      <c r="J7" s="32">
+        <v>3.1110000000000002</v>
+      </c>
+      <c r="K7" s="32">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="L7" s="32">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="M7" s="32">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="N7" s="32"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1.591</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1.93</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1.77</v>
+      </c>
+      <c r="F8" s="32">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="G8" s="32">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="H8" s="32">
+        <v>2.2519999999999998</v>
+      </c>
+      <c r="I8" s="32">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="J8" s="32">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="K8" s="32">
+        <v>3.278</v>
+      </c>
+      <c r="L8" s="32">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="M8" s="32">
+        <v>3.823</v>
+      </c>
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1.966</v>
+      </c>
+      <c r="C9" s="32">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1.845</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1.76</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1.597</v>
+      </c>
+      <c r="G9" s="32">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="H9" s="32">
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="I9" s="32">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="J9" s="32">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="K9" s="32">
+        <v>3.2080000000000002</v>
+      </c>
+      <c r="L9" s="32">
+        <v>3.153</v>
+      </c>
+      <c r="M9" s="32">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="N9" s="32"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1.82</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="G10" s="32">
+        <v>2.028</v>
+      </c>
+      <c r="H10" s="32">
+        <v>2.27</v>
+      </c>
+      <c r="I10" s="32">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="J10" s="32">
+        <v>3.8959999999999999</v>
+      </c>
+      <c r="K10" s="32">
+        <v>3.2559999999999998</v>
+      </c>
+      <c r="L10" s="32">
+        <v>3.1379999999999999</v>
+      </c>
+      <c r="M10" s="32">
+        <v>4.1079999999999997</v>
+      </c>
+      <c r="N10" s="32"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="C11" s="32">
+        <v>2.173</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1.738</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="G11" s="32">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="H11" s="32">
+        <v>2.1890000000000001</v>
+      </c>
+      <c r="I11" s="32">
+        <v>2.448</v>
+      </c>
+      <c r="J11" s="32">
+        <v>3.8759999999999999</v>
+      </c>
+      <c r="K11" s="32">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="L11" s="32">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="M11" s="32">
+        <v>3.7610000000000001</v>
+      </c>
+      <c r="N11" s="32"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="32">
+        <v>1.77</v>
+      </c>
+      <c r="C12" s="32">
+        <v>2.266</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1.726</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="G12" s="32">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="H12" s="32">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="I12" s="32">
+        <v>2.5379999999999998</v>
+      </c>
+      <c r="J12" s="32">
+        <v>3.778</v>
+      </c>
+      <c r="K12" s="32">
+        <v>3.339</v>
+      </c>
+      <c r="L12" s="32">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="M12" s="32">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="N12" s="32"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="C13" s="32">
+        <v>2.3980000000000001</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1.837</v>
+      </c>
+      <c r="G13" s="32">
+        <v>2.08</v>
+      </c>
+      <c r="H13" s="32">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="I13" s="32">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="J13" s="32">
+        <v>3.8690000000000002</v>
+      </c>
+      <c r="K13" s="32">
+        <v>3.351</v>
+      </c>
+      <c r="L13" s="32">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="M13" s="32">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="N13" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2048,12 +3718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2062,11 +3732,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -2248,16 +3918,25 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Obedeça os Parâmetros" prompt="Deve conter no máximo 25 caracteres" sqref="B3:B17">
+      <formula1>25</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Obedeça os Parâmetros" prompt="Insira valores entre 1 e 20" sqref="C3:C17">
+      <formula1>1</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2296,7 +3975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2307,18 +3986,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2329,49 +4008,49 @@
       <c r="B3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <v>0</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>4</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>5</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>7</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <v>8</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <v>11</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -2385,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2399,18 +4078,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2421,93 +4100,93 @@
       <c r="B3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <v>0</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>5</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>7</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17">
+      <c r="A8" s="14">
         <v>8</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>9</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="17">
+      <c r="A9" s="14">
         <v>10</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>11</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="17">
+      <c r="A10" s="14">
         <v>12</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>13</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="17">
+      <c r="A11" s="14">
         <v>14</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>0.16</v>
       </c>
     </row>
